--- a/Documentation/Bill of Materials/BOM Complete.xlsx
+++ b/Documentation/Bill of Materials/BOM Complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfredo\AppData\Local\TempReleases\Snapshot\1\Documentation\Bill of Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC2087B-4402-4E86-866A-B524788010DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F2C71A-D6E3-4532-998D-DCDF13A164EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3308" yWindow="3308" windowWidth="26325" windowHeight="14782" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,13 +88,13 @@
     <t>Surface Mount Parts</t>
   </si>
   <si>
-    <t>SCP-PI-A</t>
+    <t>SCP-PI-B</t>
   </si>
   <si>
     <t>SuperCap UPS Rasp Pi</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
   </si>
   <si>
     <t>None</t>
@@ -118,22 +118,22 @@
     <t>C2, C3</t>
   </si>
   <si>
-    <t>C4, C6, C9, C10, C14, C15, C16, C18, C23</t>
-  </si>
-  <si>
-    <t>C5, C13, C20</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C11, C12, C17, C19</t>
-  </si>
-  <si>
-    <t>C21, C22</t>
+    <t>C4, C7, C8, C9, C11, C15, C16, C17, C19, C24</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6, C14, C21</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C12, C13, C18, C20</t>
+  </si>
+  <si>
+    <t>C22, C23</t>
   </si>
   <si>
     <t>DZ1</t>
@@ -187,27 +187,27 @@
     <t>Q4, Q5, Q6</t>
   </si>
   <si>
-    <t>R1, R3, R7, R24, R27</t>
-  </si>
-  <si>
-    <t>R2, R5, R11, R12, R20, R23, R26</t>
-  </si>
-  <si>
-    <t>R4, R16</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R8, R13, R14, R19</t>
-  </si>
-  <si>
-    <t>R9</t>
+    <t>R1, R2, R3, R24, R27</t>
+  </si>
+  <si>
+    <t>R4, R12, R13, R14, R19</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6, R8, R9, R20, R23, R26</t>
+  </si>
+  <si>
+    <t>R7, R16</t>
   </si>
   <si>
     <t>R10</t>
   </si>
   <si>
+    <t>R11</t>
+  </si>
+  <si>
     <t>R15</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t>C0805C104K5RACTU</t>
   </si>
   <si>
+    <t>C0805C103K5RACTU</t>
+  </si>
+  <si>
     <t>C0805C225K4RACTU</t>
   </si>
   <si>
-    <t>C0805C103K5RACTU</t>
-  </si>
-  <si>
     <t>C0805C510K5GACTU</t>
   </si>
   <si>
@@ -334,15 +334,15 @@
     <t>691322110002</t>
   </si>
   <si>
+    <t>HLE-120-02-F-DV-BE</t>
+  </si>
+  <si>
+    <t>SSQ-102-01-T-S</t>
+  </si>
+  <si>
     <t>5-146256-3</t>
   </si>
   <si>
-    <t>HLE-120-02-F-DV-BE</t>
-  </si>
-  <si>
-    <t>SSQ-102-01-T-S</t>
-  </si>
-  <si>
     <t>22-28-4023</t>
   </si>
   <si>
@@ -379,18 +379,18 @@
     <t>RC0805FR-07100KL</t>
   </si>
   <si>
+    <t>RC0805FR-074K7L</t>
+  </si>
+  <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
     <t>RC0805FR-07200KL</t>
   </si>
   <si>
     <t>RC0805FR-0739KL</t>
   </si>
   <si>
-    <t>RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>RC0805FR-074K7L</t>
-  </si>
-  <si>
     <t>RC0805FR-0788K7L</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Cap 0805 Case Ceramic 100nF 50V X7R</t>
   </si>
   <si>
+    <t>Cap 0805 Case Ceramic 10nF 50V X7R</t>
+  </si>
+  <si>
     <t>Cap 0805 Case Ceramic 2.2uF 16V X7R 10%</t>
   </si>
   <si>
-    <t>Cap 0805 Case Ceramic 10nF 50V X7R</t>
-  </si>
-  <si>
     <t>Cap 0805 Case Ceramic 51pF 50V C0G 10%</t>
   </si>
   <si>
@@ -463,15 +463,15 @@
     <t>Conn Term Block Header 2 Pos 3.5 mm</t>
   </si>
   <si>
+    <t>Conn Socket Header Vert - 2 Row - 20 Pos - SMD</t>
+  </si>
+  <si>
+    <t>Conn Post Socket Header Vert - 1 Row - 2 Pos - 3 mm Lenght - Tin</t>
+  </si>
+  <si>
     <t>Breakaway Header Vert - 2 Row - 3 Pos - 6 mm Lenght - Gold</t>
   </si>
   <si>
-    <t>Conn Socket Header Vert - 2 Row - 20 Pos - SMD</t>
-  </si>
-  <si>
-    <t>Conn Post Socket Header Vert - 1 Row - 2 Pos - 3 mm Lenght - Tin</t>
-  </si>
-  <si>
     <t>Breakaway Header Vert - 1 Row - 2 Pos - 6 mm Lenght - Gold</t>
   </si>
   <si>
@@ -508,18 +508,18 @@
     <t>Resistor 0805 Case 100KR 1% 1/8W</t>
   </si>
   <si>
+    <t>Resistor 0805 Case 4.7KR 1% 1/8W</t>
+  </si>
+  <si>
+    <t>Resistor 0805 Case 10KR 1% 1/8W</t>
+  </si>
+  <si>
     <t>Resistor 0805 Case 200KR 1% 1/8W</t>
   </si>
   <si>
     <t>Resistor 0805 Case 39KR 1% 1/8W</t>
   </si>
   <si>
-    <t>Resistor 0805 Case 10KR 1% 1/8W</t>
-  </si>
-  <si>
-    <t>Resistor 0805 Case 4.7KR 1% 1/8W</t>
-  </si>
-  <si>
     <t>Resistor 0805 Case 88.7KR 1% 1/8W</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>80-C0805C104K5R</t>
   </si>
   <si>
+    <t>80-C0805C103K5R</t>
+  </si>
+  <si>
     <t>80-C0805C225K4R</t>
   </si>
   <si>
-    <t>80-C0805C103K5R</t>
-  </si>
-  <si>
     <t>80-C0805C510K5G</t>
   </si>
   <si>
@@ -658,15 +658,15 @@
     <t>710-691322110002</t>
   </si>
   <si>
+    <t>200-HLE12002FDVBE</t>
+  </si>
+  <si>
+    <t>200-SSQ10201TS</t>
+  </si>
+  <si>
     <t>571-5-146256-3</t>
   </si>
   <si>
-    <t>200-HLE12002FDVBE</t>
-  </si>
-  <si>
-    <t>200-SSQ10201TS</t>
-  </si>
-  <si>
     <t>538-22-28-4023</t>
   </si>
   <si>
@@ -703,16 +703,16 @@
     <t>603-RC0805FR-07100KL</t>
   </si>
   <si>
+    <t>603-RC0805FR-074K7L</t>
+  </si>
+  <si>
+    <t>603-RC0805FR-0710KL</t>
+  </si>
+  <si>
     <t>603-RC0805FR-07200KL</t>
   </si>
   <si>
     <t>603-RC0805FR-0739KL</t>
-  </si>
-  <si>
-    <t>603-RC0805FR-0710KL</t>
-  </si>
-  <si>
-    <t>603-RC0805FR-074K7L</t>
   </si>
   <si>
     <t>603-RC0805FR-0788K7L</t>
@@ -2306,7 +2306,7 @@
     <row r="1" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="43" t="str">
         <f>CONCATENATE("Board: ",I1)</f>
-        <v>Board: SCP-PI-A</v>
+        <v>Board: SCP-PI-B</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="27"/>
@@ -2348,7 +2348,7 @@
     <row r="3" spans="1:14" ht="24.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="50" t="str">
         <f>CONCATENATE("Revision: ",I3)</f>
-        <v>Revision: A</v>
+        <v>Revision: B</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -2576,7 +2576,7 @@
         <v>180</v>
       </c>
       <c r="H10" s="46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="47" t="s">
         <v>185</v>
@@ -2620,7 +2620,7 @@
         <v>180</v>
       </c>
       <c r="H11" s="55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="56" t="s">
         <v>185</v>
@@ -2629,16 +2629,16 @@
         <v>190</v>
       </c>
       <c r="K11" s="55">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L11" s="55">
-        <v>298211</v>
+        <v>1165207</v>
       </c>
       <c r="M11" s="58">
-        <v>9.2999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="N11" s="59">
-        <v>27.9</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -2664,7 +2664,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="47" t="s">
         <v>185</v>
@@ -2673,16 +2673,16 @@
         <v>191</v>
       </c>
       <c r="K12" s="46">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L12" s="46">
-        <v>1165207</v>
+        <v>298211</v>
       </c>
       <c r="M12" s="48">
-        <v>4.3999999999999997E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="N12" s="49">
-        <v>4.4000000000000004</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -2951,7 +2951,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>90</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="F19" s="54"/>
       <c r="G19" s="54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="55">
         <v>1</v>
@@ -2976,13 +2976,13 @@
         <v>100</v>
       </c>
       <c r="L19" s="55">
-        <v>352</v>
+        <v>257</v>
       </c>
       <c r="M19" s="58">
-        <v>0.56699999999999995</v>
+        <v>3.66</v>
       </c>
       <c r="N19" s="59">
-        <v>56.7</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="F20" s="45"/>
       <c r="G20" s="45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20" s="46">
         <v>1</v>
@@ -3018,13 +3018,13 @@
         <v>100</v>
       </c>
       <c r="L20" s="46">
-        <v>257</v>
+        <v>482</v>
       </c>
       <c r="M20" s="48">
-        <v>3.66</v>
+        <v>0.318</v>
       </c>
       <c r="N20" s="49">
-        <v>366</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3035,7 +3035,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>92</v>
@@ -3060,13 +3060,13 @@
         <v>100</v>
       </c>
       <c r="L21" s="55">
-        <v>482</v>
+        <v>352</v>
       </c>
       <c r="M21" s="58">
-        <v>0.318</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="N21" s="59">
-        <v>31.8</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3608,7 +3608,7 @@
         <v>180</v>
       </c>
       <c r="H34" s="46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34" s="47" t="s">
         <v>185</v>
@@ -3617,16 +3617,16 @@
         <v>213</v>
       </c>
       <c r="K34" s="46">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L34" s="46">
-        <v>12755</v>
+        <v>812077</v>
       </c>
       <c r="M34" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N34" s="49">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3652,7 +3652,7 @@
         <v>180</v>
       </c>
       <c r="H35" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="56" t="s">
         <v>185</v>
@@ -3661,16 +3661,16 @@
         <v>214</v>
       </c>
       <c r="K35" s="55">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L35" s="55">
-        <v>49507</v>
+        <v>3834594</v>
       </c>
       <c r="M35" s="58">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N35" s="59">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3696,7 +3696,7 @@
         <v>180</v>
       </c>
       <c r="H36" s="46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I36" s="47" t="s">
         <v>185</v>
@@ -3705,16 +3705,16 @@
         <v>215</v>
       </c>
       <c r="K36" s="46">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L36" s="46">
-        <v>3834594</v>
+        <v>12755</v>
       </c>
       <c r="M36" s="48">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N36" s="49">
-        <v>1.1000000000000001</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
@@ -3740,7 +3740,7 @@
         <v>180</v>
       </c>
       <c r="H37" s="55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="56" t="s">
         <v>185</v>
@@ -3749,16 +3749,16 @@
         <v>216</v>
       </c>
       <c r="K37" s="55">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L37" s="55">
-        <v>812077</v>
+        <v>49507</v>
       </c>
       <c r="M37" s="58">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N37" s="59">
-        <v>4.4000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.5">
